--- a/public/uploads/Trabajos diarios teniente sub-6 pilar norte (38).xlsx
+++ b/public/uploads/Trabajos diarios teniente sub-6 pilar norte (38).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97959941-4A83-41B3-8FA5-BD9976565329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B43C74-1849-401A-85D0-D014BCE67179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,17 +1220,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1253,23 +1250,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1288,6 +1282,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1908,30 +1908,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1966,7 +1966,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="25">
         <v>44851</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -1987,7 +1987,7 @@
       <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="23"/>
@@ -2009,7 +2009,7 @@
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
@@ -2046,20 +2046,20 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
@@ -2078,7 +2078,7 @@
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="25">
         <v>44853</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="23"/>
@@ -2174,7 +2174,7 @@
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="25">
         <v>44855</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -2206,7 +2206,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="23"/>
@@ -2270,7 +2270,7 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="A17" s="25">
         <v>44859</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -2297,12 +2297,12 @@
       <c r="I17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="23"/>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="37"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
@@ -2366,7 +2366,7 @@
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="A21" s="25">
         <v>44861</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -2393,12 +2393,12 @@
       <c r="I21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="23"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="37"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -2463,45 +2463,32 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H9:H10"/>
@@ -2518,32 +2505,45 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2574,30 +2574,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2653,13 +2653,13 @@
       <c r="G4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="24" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="37"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="25">
         <v>44868</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2713,22 +2713,22 @@
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="27"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="23"/>
@@ -2765,31 +2765,31 @@
       <c r="G9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="37"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="37"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -2803,12 +2803,12 @@
       <c r="G11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="37"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="37"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="25">
         <v>44872</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2841,22 +2841,22 @@
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="10" t="s">
         <v>68</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="23"/>
@@ -2893,31 +2893,31 @@
       <c r="G15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="10" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="37"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -2931,12 +2931,12 @@
       <c r="G17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="37"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="37"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="A18" s="25">
         <v>44874</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -2969,22 +2969,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="10" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="27"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="23"/>
@@ -3021,45 +3021,45 @@
       <c r="G21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="37"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="37"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="37"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="37"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
@@ -3073,12 +3073,12 @@
       <c r="G24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="37"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="37"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="25">
         <v>44876</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -3109,22 +3109,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="27"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="23"/>
@@ -3157,13 +3157,13 @@
       <c r="G28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="37"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -3177,12 +3177,12 @@
       <c r="G29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="37"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="37"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="25">
         <v>44880</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -3215,22 +3215,22 @@
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="27"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="23"/>
@@ -3267,47 +3267,47 @@
       <c r="G33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="24" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="37"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="37"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="10" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="37"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="37"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
@@ -3321,12 +3321,12 @@
       <c r="G36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="37"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="37"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
+      <c r="A37" s="25">
         <v>44882</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -3355,18 +3355,18 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="10"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="27"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="36"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="23"/>
@@ -3406,16 +3406,16 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="10"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="27"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="36"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
@@ -3430,7 +3430,7 @@
       <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
+      <c r="A43" s="25">
         <v>44886</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -3459,18 +3459,18 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="10"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="27"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="36"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
@@ -3510,16 +3510,16 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="10"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="27"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
@@ -3534,7 +3534,7 @@
       <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="35">
+      <c r="A49" s="25">
         <v>44888</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -3565,22 +3565,22 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="10" t="s">
         <v>110</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="27"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="36"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="D51" s="23"/>
@@ -3624,16 +3624,16 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="10"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="27"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="36"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
@@ -3648,7 +3648,7 @@
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="35">
+      <c r="A55" s="25">
         <v>44890</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -3679,18 +3679,18 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="10"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="27"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
       <c r="D57" s="23"/>
@@ -3734,16 +3734,16 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="10"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="27"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
@@ -3758,7 +3758,7 @@
       <c r="J60" s="23"/>
     </row>
     <row r="61" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="35">
+      <c r="A61" s="25">
         <v>44894</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -3791,18 +3791,18 @@
     </row>
     <row r="62" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="10"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="27"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
       <c r="D63" s="23"/>
@@ -3846,20 +3846,20 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="10" t="s">
         <v>125</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H65" s="27"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="27"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
@@ -3874,7 +3874,7 @@
       <c r="J66" s="23"/>
     </row>
     <row r="67" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="35">
+      <c r="A67" s="25">
         <v>44895</v>
       </c>
       <c r="B67" s="20" t="s">
@@ -3905,22 +3905,22 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="10" t="s">
         <v>125</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H68" s="27"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="27"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="36"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
       <c r="D69" s="23"/>
@@ -3942,6 +3942,159 @@
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
     <mergeCell ref="J55:J57"/>
     <mergeCell ref="J67:J69"/>
     <mergeCell ref="A58:A60"/>
@@ -3966,159 +4119,6 @@
     <mergeCell ref="H55:H57"/>
     <mergeCell ref="I55:I57"/>
     <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="J64:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4153,34 +4153,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4219,11 +4219,11 @@
       <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
@@ -4250,21 +4250,21 @@
       <c r="H4" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="24" t="s">
         <v>146</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -4279,18 +4279,18 @@
         <v>126</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="37"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="23"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="37"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
+      <c r="L5" s="24"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="25">
         <v>44897</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -4314,24 +4314,24 @@
       <c r="H6" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="23"/>
@@ -4339,13 +4339,13 @@
       <c r="F7" s="10"/>
       <c r="G7" s="1"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="23"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="37"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
+      <c r="L7" s="24"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
@@ -4372,18 +4372,18 @@
       <c r="H8" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -4398,16 +4398,16 @@
         <v>126</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="37"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="23"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="37"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
+      <c r="L9" s="24"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="25">
         <v>44901</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -4431,41 +4431,41 @@
       <c r="H10" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="10" t="s">
         <v>141</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="27"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="37"/>
+      <c r="L11" s="24"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="23"/>
@@ -4473,13 +4473,13 @@
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="37"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="23"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="37"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
+      <c r="L12" s="24"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
@@ -4506,18 +4506,18 @@
       <c r="H13" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
@@ -4528,13 +4528,13 @@
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="23"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="37"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="25">
         <v>44904</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -4554,33 +4554,33 @@
       <c r="H15" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="10"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="27"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="23"/>
@@ -4588,10 +4588,10 @@
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="37"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="23"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="37"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
@@ -4618,14 +4618,14 @@
       <c r="H18" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="24" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4638,13 +4638,13 @@
       <c r="F19" s="10"/>
       <c r="G19" s="1"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="37"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="23"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="37"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+      <c r="A20" s="25">
         <v>44908</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -4668,19 +4668,19 @@
       <c r="H20" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="23"/>
@@ -4688,10 +4688,10 @@
       <c r="F21" s="10"/>
       <c r="G21" s="1"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="37"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="23"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="37"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
@@ -4718,30 +4718,30 @@
       <c r="H22" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="10"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="27"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="37"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
@@ -4752,13 +4752,13 @@
       <c r="F24" s="10"/>
       <c r="G24" s="1"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="23"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="37"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="25">
         <v>44910</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -4782,7 +4782,7 @@
       <c r="H25" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J25" s="22" t="s">
@@ -4791,30 +4791,30 @@
       <c r="K25" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="L25" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="27"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="36"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="37"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="23"/>
@@ -4826,10 +4826,10 @@
         <v>148</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="37"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="23"/>
       <c r="K27" s="17"/>
-      <c r="L27" s="37"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
@@ -4856,7 +4856,7 @@
       <c r="H28" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J28" s="22" t="s">
@@ -4865,7 +4865,7 @@
       <c r="K28" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="24" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4878,13 +4878,13 @@
       <c r="F29" s="10"/>
       <c r="G29" s="1"/>
       <c r="H29" s="23"/>
-      <c r="I29" s="37"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="23"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="37"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="25">
         <v>44914</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -4908,7 +4908,7 @@
       <c r="H30" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J30" s="22" t="s">
@@ -4917,12 +4917,12 @@
       <c r="K30" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L30" s="37" t="s">
+      <c r="L30" s="24" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="23"/>
@@ -4930,10 +4930,10 @@
       <c r="F31" s="10"/>
       <c r="G31" s="1"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="37"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="23"/>
       <c r="K31" s="17"/>
-      <c r="L31" s="37"/>
+      <c r="L31" s="24"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
@@ -4960,7 +4960,7 @@
       <c r="H32" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J32" s="22" t="s">
@@ -4969,7 +4969,7 @@
       <c r="K32" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="L32" s="24" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4982,13 +4982,13 @@
       <c r="F33" s="10"/>
       <c r="G33" s="1"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="37"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="23"/>
       <c r="K33" s="17"/>
-      <c r="L33" s="37"/>
+      <c r="L33" s="24"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="A34" s="25">
         <v>44916</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -5012,7 +5012,7 @@
       <c r="H34" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J34" s="22" t="s">
@@ -5021,48 +5021,48 @@
       <c r="K34" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L34" s="37" t="s">
+      <c r="L34" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="10" t="s">
         <v>174</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="27"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="36"/>
       <c r="K35" s="17"/>
-      <c r="L35" s="37"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="10" t="s">
         <v>176</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="27"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="36"/>
       <c r="K36" s="17"/>
-      <c r="L36" s="37"/>
+      <c r="L36" s="24"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="23"/>
@@ -5074,10 +5074,10 @@
         <v>82</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="37"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="23"/>
       <c r="K37" s="17"/>
-      <c r="L37" s="37"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
@@ -5104,7 +5104,7 @@
       <c r="H38" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J38" s="22" t="s">
@@ -5113,7 +5113,7 @@
       <c r="K38" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="L38" s="24" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5126,13 +5126,13 @@
       <c r="F39" s="10"/>
       <c r="G39" s="1"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="37"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="23"/>
       <c r="K39" s="17"/>
-      <c r="L39" s="37"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="35">
+      <c r="A40" s="25">
         <v>44918</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -5156,7 +5156,7 @@
       <c r="H40" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J40" s="22" t="s">
@@ -5165,12 +5165,12 @@
       <c r="K40" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L40" s="37" t="s">
+      <c r="L40" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="23"/>
@@ -5178,10 +5178,10 @@
       <c r="F41" s="10"/>
       <c r="G41" s="1"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="37"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="23"/>
       <c r="K41" s="17"/>
-      <c r="L41" s="37"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
@@ -5208,7 +5208,7 @@
       <c r="H42" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="I42" s="37" t="s">
+      <c r="I42" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J42" s="22" t="s">
@@ -5217,7 +5217,7 @@
       <c r="K42" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L42" s="37" t="s">
+      <c r="L42" s="24" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5230,13 +5230,13 @@
       <c r="F43" s="10"/>
       <c r="G43" s="1"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="37"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="23"/>
       <c r="K43" s="17"/>
-      <c r="L43" s="37"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35">
+      <c r="A44" s="25">
         <v>44922</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -5260,7 +5260,7 @@
       <c r="H44" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J44" s="22" t="s">
@@ -5269,30 +5269,30 @@
       <c r="K44" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L44" s="37" t="s">
+      <c r="L44" s="24" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="10" t="s">
         <v>185</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="27"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="36"/>
       <c r="K45" s="17"/>
-      <c r="L45" s="37"/>
+      <c r="L45" s="24"/>
     </row>
     <row r="46" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
@@ -5304,10 +5304,10 @@
         <v>187</v>
       </c>
       <c r="H46" s="23"/>
-      <c r="I46" s="37"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="23"/>
       <c r="K46" s="17"/>
-      <c r="L46" s="37"/>
+      <c r="L46" s="24"/>
     </row>
     <row r="47" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
@@ -5334,7 +5334,7 @@
       <c r="H47" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="I47" s="37" t="s">
+      <c r="I47" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J47" s="22" t="s">
@@ -5343,27 +5343,27 @@
       <c r="K47" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L47" s="37" t="s">
+      <c r="L47" s="24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="10" t="s">
         <v>192</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="27"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="36"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="37"/>
+      <c r="L48" s="24"/>
     </row>
     <row r="49" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
@@ -5378,13 +5378,13 @@
         <v>187</v>
       </c>
       <c r="H49" s="23"/>
-      <c r="I49" s="37"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="23"/>
       <c r="K49" s="17"/>
-      <c r="L49" s="37"/>
+      <c r="L49" s="24"/>
     </row>
     <row r="50" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
+      <c r="A50" s="25">
         <v>44924</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -5408,7 +5408,7 @@
       <c r="H50" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="I50" s="37" t="s">
+      <c r="I50" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J50" s="22" t="s">
@@ -5417,26 +5417,26 @@
       <c r="K50" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L50" s="37" t="s">
+      <c r="L50" s="24" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="10"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="27"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="36"/>
       <c r="K51" s="17"/>
-      <c r="L51" s="37"/>
+      <c r="L51" s="24"/>
     </row>
     <row r="52" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="23"/>
@@ -5444,10 +5444,10 @@
       <c r="F52" s="10"/>
       <c r="G52" s="1"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="37"/>
+      <c r="I52" s="24"/>
       <c r="J52" s="23"/>
       <c r="K52" s="17"/>
-      <c r="L52" s="37"/>
+      <c r="L52" s="24"/>
     </row>
     <row r="53" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
@@ -5474,7 +5474,7 @@
       <c r="H53" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="I53" s="37" t="s">
+      <c r="I53" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J53" s="22" t="s">
@@ -5483,23 +5483,23 @@
       <c r="K53" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L53" s="37" t="s">
+      <c r="L53" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="10"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="27"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="36"/>
       <c r="K54" s="17"/>
-      <c r="L54" s="37"/>
+      <c r="L54" s="24"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
@@ -5510,53 +5510,173 @@
       <c r="F55" s="10"/>
       <c r="G55" s="1"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="37"/>
+      <c r="I55" s="24"/>
       <c r="J55" s="23"/>
       <c r="K55" s="17"/>
-      <c r="L55" s="37"/>
+      <c r="L55" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="224">
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="J22:J24"/>
@@ -5581,166 +5701,46 @@
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -5765,34 +5765,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -5857,7 +5857,7 @@
       <c r="H4" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -5866,7 +5866,7 @@
       <c r="K4" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="24" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5883,13 +5883,13 @@
         <v>205</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="37"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="23"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="37"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="25">
         <v>44930</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -5913,7 +5913,7 @@
       <c r="H6" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J6" s="22" t="s">
@@ -5922,12 +5922,12 @@
       <c r="K6" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="24" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="23"/>
@@ -5939,10 +5939,10 @@
         <v>205</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="23"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="37"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
@@ -5969,7 +5969,7 @@
       <c r="H8" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J8" s="22" t="s">
@@ -5978,27 +5978,27 @@
       <c r="K8" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="24" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="10" t="s">
         <v>213</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="27"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="37"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -6013,13 +6013,13 @@
         <v>216</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="23"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="37"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="25">
         <v>44932</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -6043,7 +6043,7 @@
       <c r="H11" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J11" s="22" t="s">
@@ -6052,48 +6052,48 @@
       <c r="K11" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="24" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="10" t="s">
         <v>227</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="27"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="37"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="10" t="s">
         <v>225</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="37"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="23"/>
@@ -6105,10 +6105,10 @@
         <v>220</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="23"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="37"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
@@ -6135,7 +6135,7 @@
       <c r="H15" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J15" s="22" t="s">
@@ -6144,45 +6144,45 @@
       <c r="K15" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="10" t="s">
         <v>233</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="27"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="10" t="s">
         <v>234</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="27"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="37"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
@@ -6193,13 +6193,13 @@
       <c r="F18" s="10"/>
       <c r="G18" s="1"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="23"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="37"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="25">
         <v>44936</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -6223,7 +6223,7 @@
       <c r="H19" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J19" s="22" t="s">
@@ -6232,46 +6232,46 @@
       <c r="K19" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L19" s="37"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="10" t="s">
         <v>239</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="27"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="37"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="10" t="s">
         <v>236</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="37"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="23"/>
@@ -6279,10 +6279,10 @@
       <c r="F22" s="10"/>
       <c r="G22" s="1"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="23"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="37"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -6309,7 +6309,7 @@
       <c r="H23" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J23" s="22" t="s">
@@ -6318,41 +6318,41 @@
       <c r="K23" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="24" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="10" t="s">
         <v>245</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="27"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="36"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="37"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="10"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="27"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="37"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
@@ -6363,13 +6363,13 @@
       <c r="F26" s="10"/>
       <c r="G26" s="1"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="37"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="23"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="37"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="25">
         <v>44938</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -6393,7 +6393,7 @@
       <c r="H27" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J27" s="22" t="s">
@@ -6402,40 +6402,40 @@
       <c r="K27" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L27" s="37" t="s">
+      <c r="L27" s="24" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="10"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="27"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="37"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="10"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="27"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="37"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="23"/>
@@ -6443,10 +6443,10 @@
       <c r="F30" s="10"/>
       <c r="G30" s="1"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="37"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="23"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="37"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
@@ -6473,7 +6473,7 @@
       <c r="H31" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J31" s="22" t="s">
@@ -6482,41 +6482,41 @@
       <c r="K31" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="24" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="10" t="s">
         <v>181</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="27"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="36"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="37"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="10"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="27"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="36"/>
       <c r="K33" s="17"/>
-      <c r="L33" s="37"/>
+      <c r="L33" s="24"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
@@ -6527,13 +6527,13 @@
       <c r="F34" s="10"/>
       <c r="G34" s="1"/>
       <c r="H34" s="23"/>
-      <c r="I34" s="37"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="23"/>
       <c r="K34" s="17"/>
-      <c r="L34" s="37"/>
+      <c r="L34" s="24"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
+      <c r="A35" s="25">
         <v>44943</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -6557,7 +6557,7 @@
       <c r="H35" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J35" s="22" t="s">
@@ -6566,40 +6566,40 @@
       <c r="K35" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L35" s="37" t="s">
+      <c r="L35" s="24" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="10"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="27"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="36"/>
       <c r="K36" s="17"/>
-      <c r="L36" s="37"/>
+      <c r="L36" s="24"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="10"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="27"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="36"/>
       <c r="K37" s="17"/>
-      <c r="L37" s="37"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="23"/>
@@ -6607,10 +6607,10 @@
       <c r="F38" s="10"/>
       <c r="G38" s="1"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="37"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="23"/>
       <c r="K38" s="17"/>
-      <c r="L38" s="37"/>
+      <c r="L38" s="24"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
@@ -6637,7 +6637,7 @@
       <c r="H39" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="I39" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J39" s="22" t="s">
@@ -6646,37 +6646,37 @@
       <c r="K39" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="L39" s="24" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="10"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="27"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="17"/>
-      <c r="L40" s="37"/>
+      <c r="L40" s="24"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="10"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="27"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="36"/>
       <c r="K41" s="17"/>
-      <c r="L41" s="37"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
@@ -6687,13 +6687,13 @@
       <c r="F42" s="10"/>
       <c r="G42" s="1"/>
       <c r="H42" s="23"/>
-      <c r="I42" s="37"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="23"/>
       <c r="K42" s="17"/>
-      <c r="L42" s="37"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
+      <c r="A43" s="25">
         <v>44945</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -6717,7 +6717,7 @@
       <c r="H43" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J43" s="22" t="s">
@@ -6726,48 +6726,48 @@
       <c r="K43" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L43" s="37" t="s">
+      <c r="L43" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="27"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="36"/>
       <c r="K44" s="17"/>
-      <c r="L44" s="37"/>
+      <c r="L44" s="24"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="27"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="36"/>
       <c r="K45" s="17"/>
-      <c r="L45" s="37"/>
+      <c r="L45" s="24"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
@@ -6779,10 +6779,10 @@
         <v>70</v>
       </c>
       <c r="H46" s="23"/>
-      <c r="I46" s="37"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="23"/>
       <c r="K46" s="17"/>
-      <c r="L46" s="37"/>
+      <c r="L46" s="24"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
@@ -6809,7 +6809,7 @@
       <c r="H47" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I47" s="37" t="s">
+      <c r="I47" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J47" s="22" t="s">
@@ -6818,41 +6818,41 @@
       <c r="K47" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L47" s="37" t="s">
+      <c r="L47" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="10" t="s">
         <v>261</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="27"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="36"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="37"/>
+      <c r="L48" s="24"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="10"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="27"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="17"/>
-      <c r="L49" s="37"/>
+      <c r="L49" s="24"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
@@ -6863,13 +6863,13 @@
       <c r="F50" s="10"/>
       <c r="G50" s="1"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="37"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="23"/>
       <c r="K50" s="17"/>
-      <c r="L50" s="37"/>
+      <c r="L50" s="24"/>
     </row>
     <row r="51" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35">
+      <c r="A51" s="25">
         <v>44949</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -6893,7 +6893,7 @@
       <c r="H51" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I51" s="37" t="s">
+      <c r="I51" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J51" s="22" t="s">
@@ -6902,44 +6902,44 @@
       <c r="K51" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L51" s="37" t="s">
+      <c r="L51" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="10" t="s">
         <v>267</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="27"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="36"/>
       <c r="K52" s="17"/>
-      <c r="L52" s="37"/>
+      <c r="L52" s="24"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="10"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="27"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="36"/>
       <c r="K53" s="17"/>
-      <c r="L53" s="37"/>
+      <c r="L53" s="24"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="23"/>
@@ -6947,10 +6947,10 @@
       <c r="F54" s="10"/>
       <c r="G54" s="1"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="37"/>
+      <c r="I54" s="24"/>
       <c r="J54" s="23"/>
       <c r="K54" s="17"/>
-      <c r="L54" s="37"/>
+      <c r="L54" s="24"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
@@ -6977,7 +6977,7 @@
       <c r="H55" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="I55" s="37" t="s">
+      <c r="I55" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J55" s="22" t="s">
@@ -6986,37 +6986,37 @@
       <c r="K55" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L55" s="37" t="s">
+      <c r="L55" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="10"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="27"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="36"/>
       <c r="K56" s="17"/>
-      <c r="L56" s="37"/>
+      <c r="L56" s="24"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="10"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="27"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="36"/>
       <c r="K57" s="17"/>
-      <c r="L57" s="37"/>
+      <c r="L57" s="24"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
@@ -7027,13 +7027,13 @@
       <c r="F58" s="10"/>
       <c r="G58" s="1"/>
       <c r="H58" s="23"/>
-      <c r="I58" s="37"/>
+      <c r="I58" s="24"/>
       <c r="J58" s="23"/>
       <c r="K58" s="17"/>
-      <c r="L58" s="37"/>
+      <c r="L58" s="24"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="35">
+      <c r="A59" s="25">
         <v>44951</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -7057,7 +7057,7 @@
       <c r="H59" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="I59" s="37" t="s">
+      <c r="I59" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J59" s="22" t="s">
@@ -7066,40 +7066,40 @@
       <c r="K59" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L59" s="37" t="s">
+      <c r="L59" s="24" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="10"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="27"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="36"/>
       <c r="K60" s="17"/>
-      <c r="L60" s="37"/>
+      <c r="L60" s="24"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="10"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="27"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="36"/>
       <c r="K61" s="17"/>
-      <c r="L61" s="37"/>
+      <c r="L61" s="24"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
       <c r="D62" s="23"/>
@@ -7107,10 +7107,10 @@
       <c r="F62" s="10"/>
       <c r="G62" s="1"/>
       <c r="H62" s="23"/>
-      <c r="I62" s="37"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="23"/>
       <c r="K62" s="17"/>
-      <c r="L62" s="37"/>
+      <c r="L62" s="24"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
@@ -7137,7 +7137,7 @@
       <c r="H63" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="I63" s="37" t="s">
+      <c r="I63" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J63" s="22" t="s">
@@ -7146,41 +7146,41 @@
       <c r="K63" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L63" s="37" t="s">
+      <c r="L63" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="10" t="s">
         <v>275</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H64" s="27"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="27"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="36"/>
       <c r="K64" s="17"/>
-      <c r="L64" s="37"/>
+      <c r="L64" s="24"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="10"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="27"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="36"/>
       <c r="K65" s="17"/>
-      <c r="L65" s="37"/>
+      <c r="L65" s="24"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
@@ -7191,13 +7191,13 @@
       <c r="F66" s="10"/>
       <c r="G66" s="1"/>
       <c r="H66" s="23"/>
-      <c r="I66" s="37"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="23"/>
       <c r="K66" s="17"/>
-      <c r="L66" s="37"/>
+      <c r="L66" s="24"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="35">
+      <c r="A67" s="25">
         <v>44953</v>
       </c>
       <c r="B67" s="20" t="s">
@@ -7221,7 +7221,7 @@
       <c r="H67" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="I67" s="37" t="s">
+      <c r="I67" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J67" s="22" t="s">
@@ -7230,40 +7230,40 @@
       <c r="K67" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L67" s="37" t="s">
+      <c r="L67" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="10"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="27"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="36"/>
       <c r="K68" s="17"/>
-      <c r="L68" s="37"/>
+      <c r="L68" s="24"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="10"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="27"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="36"/>
       <c r="K69" s="17"/>
-      <c r="L69" s="37"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
       <c r="D70" s="23"/>
@@ -7271,10 +7271,10 @@
       <c r="F70" s="10"/>
       <c r="G70" s="1"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="37"/>
+      <c r="I70" s="24"/>
       <c r="J70" s="23"/>
       <c r="K70" s="17"/>
-      <c r="L70" s="37"/>
+      <c r="L70" s="24"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
@@ -7301,7 +7301,7 @@
       <c r="H71" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="I71" s="37" t="s">
+      <c r="I71" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J71" s="22" t="s">
@@ -7310,37 +7310,37 @@
       <c r="K71" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L71" s="37" t="s">
+      <c r="L71" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
       <c r="F72" s="10"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="27"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="36"/>
       <c r="K72" s="17"/>
-      <c r="L72" s="37"/>
+      <c r="L72" s="24"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="10"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="27"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="36"/>
       <c r="K73" s="17"/>
-      <c r="L73" s="37"/>
+      <c r="L73" s="24"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
@@ -7351,13 +7351,13 @@
       <c r="F74" s="10"/>
       <c r="G74" s="1"/>
       <c r="H74" s="23"/>
-      <c r="I74" s="37"/>
+      <c r="I74" s="24"/>
       <c r="J74" s="23"/>
       <c r="K74" s="17"/>
-      <c r="L74" s="37"/>
+      <c r="L74" s="24"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="35">
+      <c r="A75" s="25">
         <v>44957</v>
       </c>
       <c r="B75" s="20" t="s">
@@ -7381,7 +7381,7 @@
       <c r="H75" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="I75" s="37" t="s">
+      <c r="I75" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J75" s="22" t="s">
@@ -7390,44 +7390,44 @@
       <c r="K75" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L75" s="37" t="s">
+      <c r="L75" s="24" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="10" t="s">
         <v>284</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H76" s="27"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="27"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="36"/>
       <c r="K76" s="17"/>
-      <c r="L76" s="37"/>
+      <c r="L76" s="24"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
       <c r="F77" s="10"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="27"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="36"/>
       <c r="K77" s="17"/>
-      <c r="L77" s="37"/>
+      <c r="L77" s="24"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="23"/>
@@ -7435,73 +7435,130 @@
       <c r="F78" s="10"/>
       <c r="G78" s="1"/>
       <c r="H78" s="23"/>
-      <c r="I78" s="37"/>
+      <c r="I78" s="24"/>
       <c r="J78" s="23"/>
       <c r="K78" s="17"/>
-      <c r="L78" s="37"/>
+      <c r="L78" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="201">
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="L59:L62"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="K51:K54"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="L75:L78"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
@@ -7526,123 +7583,66 @@
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="J11:J14"/>
     <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="L75:L78"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="K51:K54"/>
+    <mergeCell ref="L59:L62"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7667,38 +7667,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7769,7 +7769,7 @@
       <c r="H4" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="37"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -7795,15 +7795,15 @@
         <v>97</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="37"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="23"/>
       <c r="K5" s="17"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="37"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="25">
         <v>44959</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7827,7 +7827,7 @@
       <c r="H6" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J6" s="22" t="s">
@@ -7838,10 +7838,10 @@
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
-      <c r="N6" s="37"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="23"/>
@@ -7853,12 +7853,12 @@
         <v>70</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="23"/>
       <c r="K7" s="17"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="37"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
@@ -7885,7 +7885,7 @@
       <c r="H8" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J8" s="22" t="s">
@@ -7896,27 +7896,27 @@
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
-      <c r="N8" s="37"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="10" t="s">
         <v>275</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="27"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="37"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -7931,15 +7931,15 @@
         <v>78</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="23"/>
       <c r="K10" s="17"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="37"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="25">
         <v>44963</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -7963,7 +7963,7 @@
       <c r="H11" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J11" s="22" t="s">
@@ -7978,50 +7978,50 @@
       <c r="M11" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="N11" s="37"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="27"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="37"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="10" t="s">
         <v>296</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="37"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="23"/>
@@ -8033,12 +8033,12 @@
         <v>112</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="23"/>
       <c r="K14" s="17"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="37"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
@@ -8065,7 +8065,7 @@
       <c r="H15" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J15" s="22" t="s">
@@ -8080,45 +8080,45 @@
       <c r="M15" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="24" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="10" t="s">
         <v>68</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="27"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="37"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="10"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="27"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="37"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
@@ -8129,15 +8129,15 @@
       <c r="F18" s="10"/>
       <c r="G18" s="14"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="23"/>
       <c r="K18" s="17"/>
       <c r="L18" s="21"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="37"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="25">
         <v>44966</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -8161,7 +8161,7 @@
       <c r="H19" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J19" s="22" t="s">
@@ -8176,52 +8176,52 @@
       <c r="M19" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="N19" s="24" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="27"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="37"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="10" t="s">
         <v>306</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="37"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="23"/>
@@ -8229,12 +8229,12 @@
       <c r="F22" s="10"/>
       <c r="G22" s="14"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="23"/>
       <c r="K22" s="17"/>
       <c r="L22" s="21"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="37"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -8261,7 +8261,7 @@
       <c r="H23" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J23" s="22" t="s">
@@ -8276,47 +8276,47 @@
       <c r="M23" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="N23" s="37"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="10" t="s">
         <v>306</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="27"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="36"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="37"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="10" t="s">
         <v>290</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="27"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="37"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
@@ -8327,15 +8327,15 @@
       <c r="F26" s="10"/>
       <c r="G26" s="14"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="37"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="23"/>
       <c r="K26" s="17"/>
       <c r="L26" s="21"/>
       <c r="M26" s="23"/>
-      <c r="N26" s="37"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="25">
         <v>44970</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -8359,7 +8359,7 @@
       <c r="H27" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="24" t="s">
         <v>143</v>
       </c>
       <c r="J27" s="22" t="s">
@@ -8374,52 +8374,52 @@
       <c r="M27" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="N27" s="37" t="s">
+      <c r="N27" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="10" t="s">
         <v>314</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="27"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="37"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="10" t="s">
         <v>314</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="27"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="37"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="23"/>
@@ -8427,51 +8427,63 @@
       <c r="F30" s="10"/>
       <c r="G30" s="14"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="37"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="23"/>
       <c r="K30" s="17"/>
       <c r="L30" s="21"/>
       <c r="M30" s="23"/>
-      <c r="N30" s="37"/>
+      <c r="N30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A4:A5"/>
@@ -8485,54 +8497,42 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N27:N30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="L23:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
